--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_18_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_18_43.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77156.0538943883</v>
+        <v>5151068.340509111</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77156.0538943883</v>
+        <v>5151068.340509111</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1036508462.932815</v>
+        <v>39490692.79312713</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11922.93306302301</v>
+        <v>1063747.653327066</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22065.68616297245</v>
+        <v>1821715.683456686</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32214.90108635257</v>
+        <v>2579683.713586306</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42575.72321973417</v>
+        <v>3336892.046173073</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>52936.54535311575</v>
+        <v>4094100.378759841</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>63297.31019474616</v>
+        <v>4851308.711346607</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>73658.13232812773</v>
+        <v>5608517.04393337</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>84018.95446150935</v>
+        <v>6365725.376520133</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>94379.77659489094</v>
+        <v>7122933.709106895</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>104740.5987282725</v>
+        <v>7880142.041693658</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>115101.4208616541</v>
+        <v>8637350.374280421</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>125462.2429950357</v>
+        <v>9394558.706867188</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>135823.0651284173</v>
+        <v>10151767.03945396</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>146183.8872617989</v>
+        <v>10908975.37204074</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>156544.7093951806</v>
+        <v>11666183.70462751</v>
       </c>
     </row>
   </sheetData>
